--- a/Persistence/Database/test_data/Senders.xlsx
+++ b/Persistence/Database/test_data/Senders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieva\Desktop\PSK\komandinis\shipping-service\Persistence\Database\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vieva\Desktop\PSK\komandinis\shipping-service\Persistence\Database\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F339200E-F3B8-4A9E-9EB6-D3C3168990F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50A964-F040-49A0-B272-67527489CD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54AE04AE-C949-4CC5-AC84-C35C16DF375A}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{54AE04AE-C949-4CC5-AC84-C35C16DF375A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,34 +76,34 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Viščiukas</t>
-  </si>
-  <si>
-    <t>Kiaušinis</t>
-  </si>
-  <si>
-    <t>Blynas</t>
-  </si>
-  <si>
-    <t>Pasas13</t>
-  </si>
-  <si>
-    <t>Pasuotikamuolį</t>
-  </si>
-  <si>
-    <t>Krepšininkas17ĄĄ</t>
-  </si>
-  <si>
-    <t>SkėtyjeSkylė</t>
-  </si>
-  <si>
-    <t>LietusSuSaule</t>
-  </si>
-  <si>
-    <t>SaulėSuLietumi</t>
-  </si>
-  <si>
-    <t>Lietuviųkalba</t>
+    <t>Blynas1!!</t>
+  </si>
+  <si>
+    <t>Kiaušinis2!?</t>
+  </si>
+  <si>
+    <t>Viščiukas.3</t>
+  </si>
+  <si>
+    <t>Pasas13:</t>
+  </si>
+  <si>
+    <t>Pasuotikamuolį??4</t>
+  </si>
+  <si>
+    <t>Krepšininkas17ĄĄ?</t>
+  </si>
+  <si>
+    <t>SkėtyjeSkylė44?</t>
+  </si>
+  <si>
+    <t>LietusSuSaule!!3</t>
+  </si>
+  <si>
+    <t>SaulėSuLietumi?OI4</t>
+  </si>
+  <si>
+    <t>Lietuviųkalba55?</t>
   </si>
 </sst>
 </file>
@@ -465,7 +465,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
